--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H2">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I2">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J2">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.431895</v>
+        <v>0.4286376666666666</v>
       </c>
       <c r="N2">
-        <v>1.295685</v>
+        <v>1.285913</v>
       </c>
       <c r="O2">
-        <v>0.04262199103088977</v>
+        <v>0.031593034723905</v>
       </c>
       <c r="P2">
-        <v>0.04262199103088977</v>
+        <v>0.03159303472390499</v>
       </c>
       <c r="Q2">
-        <v>16.00422740992</v>
+        <v>17.50358057185445</v>
       </c>
       <c r="R2">
-        <v>144.03804668928</v>
+        <v>157.53222514669</v>
       </c>
       <c r="S2">
-        <v>0.03862437641350581</v>
+        <v>0.02930200546849388</v>
       </c>
       <c r="T2">
-        <v>0.03862437641350581</v>
+        <v>0.02930200546849387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H3">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I3">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J3">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>18.477372</v>
       </c>
       <c r="O3">
-        <v>0.6078193261930281</v>
+        <v>0.4539624805119086</v>
       </c>
       <c r="P3">
-        <v>0.6078193261930283</v>
+        <v>0.4539624805119086</v>
       </c>
       <c r="Q3">
-        <v>228.2314477868373</v>
+        <v>251.5101484767067</v>
       </c>
       <c r="R3">
-        <v>2054.083030081536</v>
+        <v>2263.59133629036</v>
       </c>
       <c r="S3">
-        <v>0.5508105529201717</v>
+        <v>0.4210425241734049</v>
       </c>
       <c r="T3">
-        <v>0.5508105529201718</v>
+        <v>0.4210425241734049</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H4">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I4">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J4">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.401093333333333</v>
+        <v>5.427178000000001</v>
       </c>
       <c r="N4">
-        <v>7.20328</v>
+        <v>16.281534</v>
       </c>
       <c r="O4">
-        <v>0.2369543025912839</v>
+        <v>0.400013895979308</v>
       </c>
       <c r="P4">
-        <v>0.2369543025912839</v>
+        <v>0.400013895979308</v>
       </c>
       <c r="Q4">
-        <v>88.97450477340443</v>
+        <v>221.6208578670467</v>
       </c>
       <c r="R4">
-        <v>800.77054296064</v>
+        <v>1994.58772080342</v>
       </c>
       <c r="S4">
-        <v>0.2147298132894015</v>
+        <v>0.3710061242894886</v>
       </c>
       <c r="T4">
-        <v>0.2147298132894015</v>
+        <v>0.3710061242894885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H5">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I5">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J5">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.141037</v>
+        <v>1.552534</v>
       </c>
       <c r="N5">
-        <v>3.423111</v>
+        <v>4.657602</v>
       </c>
       <c r="O5">
-        <v>0.1126043801847981</v>
+        <v>0.1144305887848784</v>
       </c>
       <c r="P5">
-        <v>0.1126043801847981</v>
+        <v>0.1144305887848784</v>
       </c>
       <c r="Q5">
-        <v>42.28207233501866</v>
+        <v>63.39831067780666</v>
       </c>
       <c r="R5">
-        <v>380.538651015168</v>
+        <v>570.5847961002601</v>
       </c>
       <c r="S5">
-        <v>0.1020429562503327</v>
+        <v>0.1061324360777658</v>
       </c>
       <c r="T5">
-        <v>0.1020429562503327</v>
+        <v>0.1061324360777658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>5.037205</v>
       </c>
       <c r="I6">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J6">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.431895</v>
+        <v>0.4286376666666666</v>
       </c>
       <c r="N6">
-        <v>1.295685</v>
+        <v>1.285913</v>
       </c>
       <c r="O6">
-        <v>0.04262199103088977</v>
+        <v>0.031593034723905</v>
       </c>
       <c r="P6">
-        <v>0.04262199103088977</v>
+        <v>0.03159303472390499</v>
       </c>
       <c r="Q6">
-        <v>0.725181217825</v>
+        <v>0.7197119325738889</v>
       </c>
       <c r="R6">
-        <v>6.526630960425</v>
+        <v>6.477407393165</v>
       </c>
       <c r="S6">
-        <v>0.001750142109822555</v>
+        <v>0.001204839369719089</v>
       </c>
       <c r="T6">
-        <v>0.001750142109822555</v>
+        <v>0.001204839369719088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.037205</v>
       </c>
       <c r="I7">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J7">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>18.477372</v>
       </c>
       <c r="O7">
-        <v>0.6078193261930281</v>
+        <v>0.4539624805119086</v>
       </c>
       <c r="P7">
-        <v>0.6078193261930283</v>
+        <v>0.4539624805119086</v>
       </c>
       <c r="Q7">
         <v>10.34159006947333</v>
@@ -883,10 +883,10 @@
         <v>93.07431062526</v>
       </c>
       <c r="S7">
-        <v>0.02495824742592235</v>
+        <v>0.01731241945181761</v>
       </c>
       <c r="T7">
-        <v>0.02495824742592236</v>
+        <v>0.0173124194518176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.037205</v>
       </c>
       <c r="I8">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J8">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.401093333333333</v>
+        <v>5.427178000000001</v>
       </c>
       <c r="N8">
-        <v>7.20328</v>
+        <v>16.281534</v>
       </c>
       <c r="O8">
-        <v>0.2369543025912839</v>
+        <v>0.400013895979308</v>
       </c>
       <c r="P8">
-        <v>0.2369543025912839</v>
+        <v>0.400013895979308</v>
       </c>
       <c r="Q8">
-        <v>4.031599781377778</v>
+        <v>9.112602719163334</v>
       </c>
       <c r="R8">
-        <v>36.28439803240001</v>
+        <v>82.01342447247001</v>
       </c>
       <c r="S8">
-        <v>0.009729805976639859</v>
+        <v>0.01525502360005686</v>
       </c>
       <c r="T8">
-        <v>0.00972980597663986</v>
+        <v>0.01525502360005685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.037205</v>
       </c>
       <c r="I9">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J9">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.141037</v>
+        <v>1.552534</v>
       </c>
       <c r="N9">
-        <v>3.423111</v>
+        <v>4.657602</v>
       </c>
       <c r="O9">
-        <v>0.1126043801847981</v>
+        <v>0.1144305887848784</v>
       </c>
       <c r="P9">
-        <v>0.1126043801847981</v>
+        <v>0.1144305887848784</v>
       </c>
       <c r="Q9">
-        <v>1.915879093861667</v>
+        <v>2.606810675823333</v>
       </c>
       <c r="R9">
-        <v>17.242911844755</v>
+        <v>23.46129608241</v>
       </c>
       <c r="S9">
-        <v>0.004623755548375413</v>
+        <v>0.004363951727747029</v>
       </c>
       <c r="T9">
-        <v>0.004623755548375414</v>
+        <v>0.004363951727747028</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H10">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I10">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J10">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.431895</v>
+        <v>0.4286376666666666</v>
       </c>
       <c r="N10">
-        <v>1.295685</v>
+        <v>1.285913</v>
       </c>
       <c r="O10">
-        <v>0.04262199103088977</v>
+        <v>0.031593034723905</v>
       </c>
       <c r="P10">
-        <v>0.04262199103088977</v>
+        <v>0.03159303472390499</v>
       </c>
       <c r="Q10">
-        <v>0.8925925016899998</v>
+        <v>0.644593467249</v>
       </c>
       <c r="R10">
-        <v>8.033332515209999</v>
+        <v>5.801341205240999</v>
       </c>
       <c r="S10">
-        <v>0.002154170138058524</v>
+        <v>0.001079086717414671</v>
       </c>
       <c r="T10">
-        <v>0.002154170138058524</v>
+        <v>0.001079086717414671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H11">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I11">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J11">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>18.477372</v>
       </c>
       <c r="O11">
-        <v>0.6078193261930281</v>
+        <v>0.4539624805119086</v>
       </c>
       <c r="P11">
-        <v>0.6078193261930283</v>
+        <v>0.4539624805119086</v>
       </c>
       <c r="Q11">
-        <v>12.72899176739466</v>
+        <v>9.262207694555999</v>
       </c>
       <c r="R11">
-        <v>114.560925906552</v>
+        <v>83.359869251004</v>
       </c>
       <c r="S11">
-        <v>0.03071996896791944</v>
+        <v>0.01550547097504245</v>
       </c>
       <c r="T11">
-        <v>0.03071996896791945</v>
+        <v>0.01550547097504244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H12">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I12">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J12">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.401093333333333</v>
+        <v>5.427178000000001</v>
       </c>
       <c r="N12">
-        <v>7.20328</v>
+        <v>16.281534</v>
       </c>
       <c r="O12">
-        <v>0.2369543025912839</v>
+        <v>0.400013895979308</v>
       </c>
       <c r="P12">
-        <v>0.2369543025912839</v>
+        <v>0.400013895979308</v>
       </c>
       <c r="Q12">
-        <v>4.962312379608888</v>
+        <v>8.161493392782001</v>
       </c>
       <c r="R12">
-        <v>44.66081141648</v>
+        <v>73.453440535038</v>
       </c>
       <c r="S12">
-        <v>0.01197597461734465</v>
+        <v>0.01366281161986493</v>
       </c>
       <c r="T12">
-        <v>0.01197597461734465</v>
+        <v>0.01366281161986492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H13">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I13">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J13">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.141037</v>
+        <v>1.552534</v>
       </c>
       <c r="N13">
-        <v>3.423111</v>
+        <v>4.657602</v>
       </c>
       <c r="O13">
-        <v>0.1126043801847981</v>
+        <v>0.1144305887848784</v>
       </c>
       <c r="P13">
-        <v>0.1126043801847981</v>
+        <v>0.1144305887848784</v>
       </c>
       <c r="Q13">
-        <v>2.358168236147333</v>
+        <v>2.334730127346</v>
       </c>
       <c r="R13">
-        <v>21.223514125326</v>
+        <v>21.012571146114</v>
       </c>
       <c r="S13">
-        <v>0.005691169918197442</v>
+        <v>0.003908473165139483</v>
       </c>
       <c r="T13">
-        <v>0.005691169918197444</v>
+        <v>0.003908473165139482</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H14">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I14">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J14">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.431895</v>
+        <v>0.4286376666666666</v>
       </c>
       <c r="N14">
-        <v>1.295685</v>
+        <v>1.285913</v>
       </c>
       <c r="O14">
-        <v>0.04262199103088977</v>
+        <v>0.031593034723905</v>
       </c>
       <c r="P14">
-        <v>0.04262199103088977</v>
+        <v>0.03159303472390499</v>
       </c>
       <c r="Q14">
-        <v>0.0386603611</v>
+        <v>0.004243084262333333</v>
       </c>
       <c r="R14">
-        <v>0.3479432499</v>
+        <v>0.038187758361</v>
       </c>
       <c r="S14">
-        <v>9.330236950287886E-05</v>
+        <v>7.103168277357735E-06</v>
       </c>
       <c r="T14">
-        <v>9.330236950287886E-05</v>
+        <v>7.103168277357733E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H15">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I15">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J15">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>18.477372</v>
       </c>
       <c r="O15">
-        <v>0.6078193261930281</v>
+        <v>0.4539624805119086</v>
       </c>
       <c r="P15">
-        <v>0.6078193261930283</v>
+        <v>0.4539624805119086</v>
       </c>
       <c r="Q15">
-        <v>0.5513237196533333</v>
+        <v>0.06096916847599999</v>
       </c>
       <c r="R15">
-        <v>4.96191347688</v>
+        <v>0.548722516284</v>
       </c>
       <c r="S15">
-        <v>0.001330556879014689</v>
+        <v>0.0001020659116435856</v>
       </c>
       <c r="T15">
-        <v>0.001330556879014689</v>
+        <v>0.0001020659116435856</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H16">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I16">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J16">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.401093333333333</v>
+        <v>5.427178000000001</v>
       </c>
       <c r="N16">
-        <v>7.20328</v>
+        <v>16.281534</v>
       </c>
       <c r="O16">
-        <v>0.2369543025912839</v>
+        <v>0.400013895979308</v>
       </c>
       <c r="P16">
-        <v>0.2369543025912839</v>
+        <v>0.400013895979308</v>
       </c>
       <c r="Q16">
-        <v>0.2149298679111111</v>
+        <v>0.053723635022</v>
       </c>
       <c r="R16">
-        <v>1.9343688112</v>
+        <v>0.483512715198</v>
       </c>
       <c r="S16">
-        <v>0.0005187087078979052</v>
+        <v>8.993646989766914E-05</v>
       </c>
       <c r="T16">
-        <v>0.0005187087078979052</v>
+        <v>8.993646989766912E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H17">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I17">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J17">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.141037</v>
+        <v>1.552534</v>
       </c>
       <c r="N17">
-        <v>3.423111</v>
+        <v>4.657602</v>
       </c>
       <c r="O17">
-        <v>0.1126043801847981</v>
+        <v>0.1144305887848784</v>
       </c>
       <c r="P17">
-        <v>0.1126043801847981</v>
+        <v>0.1144305887848784</v>
       </c>
       <c r="Q17">
-        <v>0.1021380253266667</v>
+        <v>0.015368534066</v>
       </c>
       <c r="R17">
-        <v>0.9192422279400001</v>
+        <v>0.138316806594</v>
       </c>
       <c r="S17">
-        <v>0.0002464984678925581</v>
+        <v>2.572781422612412E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002464984678925582</v>
+        <v>2.572781422612411E-05</v>
       </c>
     </row>
   </sheetData>
